--- a/Error Rates 2.xlsx
+++ b/Error Rates 2.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23820" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23820" windowHeight="9855"/>
   </bookViews>
   <sheets>
-    <sheet name="Error Rates 2" sheetId="1" r:id="rId1"/>
-    <sheet name="Actual meaningfull data" sheetId="2" r:id="rId2"/>
+    <sheet name="81 dim vs 29 dim" sheetId="2" r:id="rId1"/>
+    <sheet name="detail 81 dim" sheetId="3" r:id="rId2"/>
+    <sheet name="detail preprocessing 21 dim" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Dimension</t>
   </si>
@@ -33,6 +37,27 @@
   </si>
   <si>
     <t>81 dimensies</t>
+  </si>
+  <si>
+    <t>TrainError</t>
+  </si>
+  <si>
+    <t>TestError</t>
+  </si>
+  <si>
+    <t>Nr of Records</t>
+  </si>
+  <si>
+    <t>Feautres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre Processing </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 dimensies </t>
   </si>
 </sst>
 </file>
@@ -573,6 +598,33 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="nl-BE"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Train error</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> vs nr of hidden nodes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -582,7 +634,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Actual meaningfull data'!$A$2</c:f>
+              <c:f>'81 dim vs 29 dim'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -598,10 +650,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Actual meaningfull data'!$B$2:$B$13</c:f>
+              <c:f>'81 dim vs 29 dim'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -631,22 +683,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Actual meaningfull data'!$D$2:$D$13</c:f>
+              <c:f>'81 dim vs 29 dim'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>51.136363636399999</c:v>
                 </c:pt>
@@ -676,12 +722,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>47.727272727299997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>48.863636363600001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,7 +732,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Actual meaningfull data'!$A$15</c:f>
+              <c:f>'81 dim vs 29 dim'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -708,7 +748,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Actual meaningfull data'!$B$15:$B$24</c:f>
+              <c:f>'81 dim vs 29 dim'!$B$15:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -747,10 +787,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Actual meaningfull data'!$D$15:$D$23</c:f>
+              <c:f>'81 dim vs 29 dim'!$D$15:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>48.863636363600001</c:v>
                 </c:pt>
@@ -777,36 +817,174 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>54.5454545455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="146188160"/>
-        <c:axId val="146186624"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'81 dim vs 29 dim'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33 dimensies </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'81 dim vs 29 dim'!$B$27:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'81 dim vs 29 dim'!$E$27:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>43.2692307692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.038461538500002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.923076923099998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.076923076900002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.076923076900002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.153846153800004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.153846153800004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.846153846199996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.846153846199996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="142288768"/>
+        <c:axId val="142290304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146188160"/>
+        <c:axId val="142288768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Nr of Hidden Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146186624"/>
+        <c:crossAx val="142290304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146186624"/>
+        <c:axId val="142290304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Error(%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146188160"/>
+        <c:crossAx val="142288768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -819,7 +997,1463 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-BE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Test error</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> vs nr of hidden nodes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'81 dim vs 29 dim'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29 dimensies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'81 dim vs 29 dim'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'81 dim vs 29 dim'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>34.962406014999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.315789473700001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.187969924800001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.571428571399998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.812030075199999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.954887218</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.548872180499998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.187969924800001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.338345864700003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.300751879700002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'81 dim vs 29 dim'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>81 dimensies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'81 dim vs 29 dim'!$B$15:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'81 dim vs 29 dim'!$C$15:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>51.1278195489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.368421052599999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.233082706799998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.488721804500003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.714285714299997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.624060150399998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.969924812000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.2030075188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.947368421099998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.090225563899999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'81 dim vs 29 dim'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33 dimensies </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'81 dim vs 29 dim'!$B$27:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'81 dim vs 29 dim'!$D$27:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>52.229299363099997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.318471337600002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.363057324800003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.636942675199997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.636942675199997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.273885350299999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.273885350299999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.726114649700001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.726114649700001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="66725376"/>
+        <c:axId val="67266816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="66725376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Nr of Hidden Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67266816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="67266816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Error(%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66725376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-BE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Error Rates  : no preprocessing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Error Rates 3'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TrainError</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Error Rates 3'!$C$2:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Error Rates 3'!$E$2:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>49.044585987300003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.222929936299998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.815286624199999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.031847133799999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.222929936299998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.585987261100001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.713375796199998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.496815286599997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.949044585999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.305732484099998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.573248407600001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.6242038217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.356687898099999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.401273885400002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.343949044599999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.898089171999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.267515923600001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35.987261146500003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.757961783399999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.305732484099998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.5286624204</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.165605095499998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.343949044599999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.3885350318</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42.993630573200001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.343949044599999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.980891719700001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34.076433121000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.292993630600002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.292993630600002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.337579617799999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.573248407600001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.5668789809</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50.955414012699997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33.121019108299997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.579617834399997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.159235668800001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.477707006399999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.5668789809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Error Rates 3'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TestError</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Error Rates 3'!$C$2:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Error Rates 3'!$F$2:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>52.884615384600004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.7692307692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.923076923099998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.461538461499998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.307692307700002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.2692307692</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.346153846199996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.038461538500002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.038461538500002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.153846153800004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.423076923099998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.076923076900002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.2307692308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.923076923099998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.346153846199996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.153846153800004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.076923076900002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.192307692299998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.615384615400004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.538461538500002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39.423076923099998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39.423076923099998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.7307692308</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41.346153846199996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.153846153800004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.346153846199996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38.461538461499998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40.384615384600004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.423076923099998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42.307692307700002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.692307692299998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45.192307692299998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47.115384615400004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38.461538461499998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41.346153846199996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.461538461499998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.423076923099998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="162816768"/>
+        <c:axId val="162819456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="162816768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Nr of Hidden nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="162819456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="162819456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Errpr Rate(%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="162816768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-BE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Error Rates  : no preprocessing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'detail preprocessing 21 dim'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TrainError</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'detail preprocessing 21 dim'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'detail preprocessing 21 dim'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>52.229299363099997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.318471337600002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.363057324800003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.636942675199997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.636942675199997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.273885350299999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.273885350299999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.726114649700001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.726114649700001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.636942675199997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.726114649700001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.681528662399998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.229299363099997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.866242038199999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.089171974499997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.452229299400003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'detail preprocessing 21 dim'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TestError</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'detail preprocessing 21 dim'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'detail preprocessing 21 dim'!$E$2:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>43.2692307692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.038461538500002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.923076923099998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.076923076900002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.076923076900002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.153846153800004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.153846153800004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.846153846199996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.846153846199996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.076923076900002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.846153846199996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.961538461499998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.2692307692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.346153846199996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.7692307692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="66006016"/>
+        <c:axId val="66532480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="66006016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Nr of Hidden nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66532480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66532480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Errpr Rate(%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66006016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -830,15 +2464,80 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -858,6 +2557,492 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Error Rates 3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="E1" t="str">
+            <v>TrainError</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>TestError</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="C2">
+            <v>20</v>
+          </cell>
+          <cell r="E2">
+            <v>49.044585987300003</v>
+          </cell>
+          <cell r="F2">
+            <v>52.884615384600004</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>40</v>
+          </cell>
+          <cell r="E3">
+            <v>45.222929936299998</v>
+          </cell>
+          <cell r="F3">
+            <v>55.7692307692</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>60</v>
+          </cell>
+          <cell r="E4">
+            <v>46.815286624199999</v>
+          </cell>
+          <cell r="F4">
+            <v>51.923076923099998</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>80</v>
+          </cell>
+          <cell r="E5">
+            <v>35.031847133799999</v>
+          </cell>
+          <cell r="F5">
+            <v>38.461538461499998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>100</v>
+          </cell>
+          <cell r="E6">
+            <v>45.222929936299998</v>
+          </cell>
+          <cell r="F6">
+            <v>42.307692307700002</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>120</v>
+          </cell>
+          <cell r="E7">
+            <v>44.585987261100001</v>
+          </cell>
+          <cell r="F7">
+            <v>43.2692307692</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>140</v>
+          </cell>
+          <cell r="E8">
+            <v>34.713375796199998</v>
+          </cell>
+          <cell r="F8">
+            <v>41.346153846199996</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>160</v>
+          </cell>
+          <cell r="E9">
+            <v>46.496815286599997</v>
+          </cell>
+          <cell r="F9">
+            <v>49.038461538500002</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>180</v>
+          </cell>
+          <cell r="E10">
+            <v>43.949044585999999</v>
+          </cell>
+          <cell r="F10">
+            <v>49.038461538500002</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>200</v>
+          </cell>
+          <cell r="E11">
+            <v>36.305732484099998</v>
+          </cell>
+          <cell r="F11">
+            <v>46.153846153800004</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>220</v>
+          </cell>
+          <cell r="E12">
+            <v>30.573248407600001</v>
+          </cell>
+          <cell r="F12">
+            <v>39.423076923099998</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>240</v>
+          </cell>
+          <cell r="E13">
+            <v>36.6242038217</v>
+          </cell>
+          <cell r="F13">
+            <v>48.076923076900002</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>260</v>
+          </cell>
+          <cell r="E14">
+            <v>42.356687898099999</v>
+          </cell>
+          <cell r="F14">
+            <v>44.2307692308</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>280</v>
+          </cell>
+          <cell r="E15">
+            <v>41.401273885400002</v>
+          </cell>
+          <cell r="F15">
+            <v>51.923076923099998</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>300</v>
+          </cell>
+          <cell r="E16">
+            <v>28.343949044599999</v>
+          </cell>
+          <cell r="F16">
+            <v>41.346153846199996</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>320</v>
+          </cell>
+          <cell r="E17">
+            <v>37.898089171999999</v>
+          </cell>
+          <cell r="F17">
+            <v>46.153846153800004</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>340</v>
+          </cell>
+          <cell r="E18">
+            <v>44.267515923600001</v>
+          </cell>
+          <cell r="F18">
+            <v>48.076923076900002</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>360</v>
+          </cell>
+          <cell r="E19">
+            <v>35.987261146500003</v>
+          </cell>
+          <cell r="F19">
+            <v>45.192307692299998</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>380</v>
+          </cell>
+          <cell r="E20">
+            <v>33.757961783399999</v>
+          </cell>
+          <cell r="F20">
+            <v>34.615384615400004</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>400</v>
+          </cell>
+          <cell r="E21">
+            <v>36.305732484099998</v>
+          </cell>
+          <cell r="F21">
+            <v>36.538461538500002</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>420</v>
+          </cell>
+          <cell r="E22">
+            <v>31.5286624204</v>
+          </cell>
+          <cell r="F22">
+            <v>39.423076923099998</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>440</v>
+          </cell>
+          <cell r="E23">
+            <v>32.165605095499998</v>
+          </cell>
+          <cell r="F23">
+            <v>39.423076923099998</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>460</v>
+          </cell>
+          <cell r="E24">
+            <v>28.343949044599999</v>
+          </cell>
+          <cell r="F24">
+            <v>31.7307692308</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>480</v>
+          </cell>
+          <cell r="E25">
+            <v>27.3885350318</v>
+          </cell>
+          <cell r="F25">
+            <v>41.346153846199996</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>500</v>
+          </cell>
+          <cell r="E26">
+            <v>42.993630573200001</v>
+          </cell>
+          <cell r="F26">
+            <v>46.153846153800004</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>520</v>
+          </cell>
+          <cell r="E27">
+            <v>28.343949044599999</v>
+          </cell>
+          <cell r="F27">
+            <v>41.346153846199996</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>540</v>
+          </cell>
+          <cell r="E28">
+            <v>28.980891719700001</v>
+          </cell>
+          <cell r="F28">
+            <v>38.461538461499998</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>560</v>
+          </cell>
+          <cell r="E29">
+            <v>34.076433121000001</v>
+          </cell>
+          <cell r="F29">
+            <v>40.384615384600004</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>580</v>
+          </cell>
+          <cell r="E30">
+            <v>22.292993630600002</v>
+          </cell>
+          <cell r="F30">
+            <v>39.423076923099998</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>600</v>
+          </cell>
+          <cell r="E31">
+            <v>22.292993630600002</v>
+          </cell>
+          <cell r="F31">
+            <v>42.307692307700002</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>620</v>
+          </cell>
+          <cell r="E32">
+            <v>21.337579617799999</v>
+          </cell>
+          <cell r="F32">
+            <v>32.692307692299998</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>640</v>
+          </cell>
+          <cell r="E33">
+            <v>30.573248407600001</v>
+          </cell>
+          <cell r="F33">
+            <v>45.192307692299998</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>660</v>
+          </cell>
+          <cell r="E34">
+            <v>23.5668789809</v>
+          </cell>
+          <cell r="F34">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>680</v>
+          </cell>
+          <cell r="E35">
+            <v>50.955414012699997</v>
+          </cell>
+          <cell r="F35">
+            <v>47.115384615400004</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>700</v>
+          </cell>
+          <cell r="E36">
+            <v>33.121019108299997</v>
+          </cell>
+          <cell r="F36">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>720</v>
+          </cell>
+          <cell r="E37">
+            <v>37.579617834399997</v>
+          </cell>
+          <cell r="F37">
+            <v>38.461538461499998</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>740</v>
+          </cell>
+          <cell r="E38">
+            <v>25.159235668800001</v>
+          </cell>
+          <cell r="F38">
+            <v>41.346153846199996</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>760</v>
+          </cell>
+          <cell r="E39">
+            <v>25.477707006399999</v>
+          </cell>
+          <cell r="F39">
+            <v>38.461538461499998</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>780</v>
+          </cell>
+          <cell r="E40">
+            <v>23.5668789809</v>
+          </cell>
+          <cell r="F40">
+            <v>39.423076923099998</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1145,1092 +3330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D78"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D69" sqref="A69:D78"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>29</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>34.962406014999999</v>
-      </c>
-      <c r="D2">
-        <v>51.136363636399999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>29</v>
-      </c>
-      <c r="B3">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>26.315789473700001</v>
-      </c>
-      <c r="D3">
-        <v>44.318181818200003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>25.187969924800001</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>29</v>
-      </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>28.571428571399998</v>
-      </c>
-      <c r="D5">
-        <v>51.136363636399999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <v>24.812030075199999</v>
-      </c>
-      <c r="D6">
-        <v>53.409090909100001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>120</v>
-      </c>
-      <c r="C7">
-        <v>31.954887218</v>
-      </c>
-      <c r="D7">
-        <v>52.272727272700003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>140</v>
-      </c>
-      <c r="C8">
-        <v>19.548872180499998</v>
-      </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <v>160</v>
-      </c>
-      <c r="C9">
-        <v>25.187969924800001</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>180</v>
-      </c>
-      <c r="C10">
-        <v>35.338345864700003</v>
-      </c>
-      <c r="D10">
-        <v>46.590909090899999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-      <c r="C11">
-        <v>20.300751879700002</v>
-      </c>
-      <c r="D11">
-        <v>47.727272727299997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>29</v>
-      </c>
-      <c r="B12">
-        <v>220</v>
-      </c>
-      <c r="C12">
-        <v>35.714285714299997</v>
-      </c>
-      <c r="D12">
-        <v>48.863636363600001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>240</v>
-      </c>
-      <c r="C13">
-        <v>11.6541353383</v>
-      </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>29</v>
-      </c>
-      <c r="B14">
-        <v>260</v>
-      </c>
-      <c r="C14">
-        <v>26.691729323299999</v>
-      </c>
-      <c r="D14">
-        <v>53.409090909100001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>280</v>
-      </c>
-      <c r="C15">
-        <v>19.9248120301</v>
-      </c>
-      <c r="D15">
-        <v>60.227272727299997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>29</v>
-      </c>
-      <c r="B16">
-        <v>300</v>
-      </c>
-      <c r="C16">
-        <v>27.819548872199999</v>
-      </c>
-      <c r="D16">
-        <v>48.863636363600001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>29</v>
-      </c>
-      <c r="B17">
-        <v>320</v>
-      </c>
-      <c r="C17">
-        <v>13.533834586499999</v>
-      </c>
-      <c r="D17">
-        <v>46.590909090899999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>340</v>
-      </c>
-      <c r="C18">
-        <v>33.458646616499998</v>
-      </c>
-      <c r="D18">
-        <v>61.363636363600001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>29</v>
-      </c>
-      <c r="B19">
-        <v>360</v>
-      </c>
-      <c r="C19">
-        <v>25.939849624099999</v>
-      </c>
-      <c r="D19">
-        <v>43.181818181799997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>29</v>
-      </c>
-      <c r="B20">
-        <v>380</v>
-      </c>
-      <c r="C20">
-        <v>40.601503759400003</v>
-      </c>
-      <c r="D20">
-        <v>45.4545454545</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>400</v>
-      </c>
-      <c r="C21">
-        <v>21.8045112782</v>
-      </c>
-      <c r="D21">
-        <v>57.9545454545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>420</v>
-      </c>
-      <c r="C22">
-        <v>22.180451127800001</v>
-      </c>
-      <c r="D22">
-        <v>55.681818181799997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>440</v>
-      </c>
-      <c r="C23">
-        <v>27.4436090226</v>
-      </c>
-      <c r="D23">
-        <v>47.727272727299997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>460</v>
-      </c>
-      <c r="C24">
-        <v>27.067669172900001</v>
-      </c>
-      <c r="D24">
-        <v>51.136363636399999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>480</v>
-      </c>
-      <c r="C25">
-        <v>13.533834586499999</v>
-      </c>
-      <c r="D25">
-        <v>52.272727272700003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <v>500</v>
-      </c>
-      <c r="C26">
-        <v>12.7819548872</v>
-      </c>
-      <c r="D26">
-        <v>57.9545454545</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>520</v>
-      </c>
-      <c r="C27">
-        <v>27.819548872199999</v>
-      </c>
-      <c r="D27">
-        <v>55.681818181799997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>540</v>
-      </c>
-      <c r="C28">
-        <v>11.6541353383</v>
-      </c>
-      <c r="D28">
-        <v>47.727272727299997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>560</v>
-      </c>
-      <c r="C29">
-        <v>9.0225563909800002</v>
-      </c>
-      <c r="D29">
-        <v>56.818181818200003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>580</v>
-      </c>
-      <c r="C30">
-        <v>22.932330827099999</v>
-      </c>
-      <c r="D30">
-        <v>54.5454545455</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>600</v>
-      </c>
-      <c r="C31">
-        <v>24.812030075199999</v>
-      </c>
-      <c r="D31">
-        <v>59.090909090899999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>620</v>
-      </c>
-      <c r="C32">
-        <v>34.210526315800003</v>
-      </c>
-      <c r="D32">
-        <v>57.9545454545</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>29</v>
-      </c>
-      <c r="B33">
-        <v>640</v>
-      </c>
-      <c r="C33">
-        <v>19.172932330799998</v>
-      </c>
-      <c r="D33">
-        <v>57.9545454545</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>29</v>
-      </c>
-      <c r="B34">
-        <v>660</v>
-      </c>
-      <c r="C34">
-        <v>12.4060150376</v>
-      </c>
-      <c r="D34">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>29</v>
-      </c>
-      <c r="B35">
-        <v>680</v>
-      </c>
-      <c r="C35">
-        <v>39.8496240602</v>
-      </c>
-      <c r="D35">
-        <v>56.818181818200003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>29</v>
-      </c>
-      <c r="B36">
-        <v>700</v>
-      </c>
-      <c r="C36">
-        <v>11.6541353383</v>
-      </c>
-      <c r="D36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>29</v>
-      </c>
-      <c r="B37">
-        <v>720</v>
-      </c>
-      <c r="C37">
-        <v>10.1503759398</v>
-      </c>
-      <c r="D37">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>29</v>
-      </c>
-      <c r="B38">
-        <v>740</v>
-      </c>
-      <c r="C38">
-        <v>22.5563909774</v>
-      </c>
-      <c r="D38">
-        <v>52.272727272700003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>29</v>
-      </c>
-      <c r="B39">
-        <v>760</v>
-      </c>
-      <c r="C39">
-        <v>26.315789473700001</v>
-      </c>
-      <c r="D39">
-        <v>51.136363636399999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>29</v>
-      </c>
-      <c r="B40">
-        <v>780</v>
-      </c>
-      <c r="C40">
-        <v>18.7969924812</v>
-      </c>
-      <c r="D40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>29</v>
-      </c>
-      <c r="B41">
-        <v>800</v>
-      </c>
-      <c r="C41">
-        <v>26.691729323299999</v>
-      </c>
-      <c r="D41">
-        <v>59.090909090899999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>29</v>
-      </c>
-      <c r="B42">
-        <v>820</v>
-      </c>
-      <c r="C42">
-        <v>29.699248120299998</v>
-      </c>
-      <c r="D42">
-        <v>51.136363636399999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>29</v>
-      </c>
-      <c r="B43">
-        <v>840</v>
-      </c>
-      <c r="C43">
-        <v>13.157894736799999</v>
-      </c>
-      <c r="D43">
-        <v>51.136363636399999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>29</v>
-      </c>
-      <c r="B44">
-        <v>860</v>
-      </c>
-      <c r="C44">
-        <v>27.067669172900001</v>
-      </c>
-      <c r="D44">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>29</v>
-      </c>
-      <c r="B45">
-        <v>880</v>
-      </c>
-      <c r="C45">
-        <v>10.5263157895</v>
-      </c>
-      <c r="D45">
-        <v>57.9545454545</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>29</v>
-      </c>
-      <c r="B46">
-        <v>900</v>
-      </c>
-      <c r="C46">
-        <v>29.3233082707</v>
-      </c>
-      <c r="D46">
-        <v>51.136363636399999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>29</v>
-      </c>
-      <c r="B47">
-        <v>920</v>
-      </c>
-      <c r="C47">
-        <v>31.2030075188</v>
-      </c>
-      <c r="D47">
-        <v>63.636363636399999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>29</v>
-      </c>
-      <c r="B48">
-        <v>940</v>
-      </c>
-      <c r="C48">
-        <v>33.834586466200001</v>
-      </c>
-      <c r="D48">
-        <v>44.318181818200003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>29</v>
-      </c>
-      <c r="B49">
-        <v>960</v>
-      </c>
-      <c r="C49">
-        <v>30.0751879699</v>
-      </c>
-      <c r="D49">
-        <v>43.181818181799997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>29</v>
-      </c>
-      <c r="B50">
-        <v>980</v>
-      </c>
-      <c r="C50">
-        <v>28.947368421099998</v>
-      </c>
-      <c r="D50">
-        <v>57.9545454545</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>29</v>
-      </c>
-      <c r="B51">
-        <v>20</v>
-      </c>
-      <c r="C51">
-        <v>43.233082706799998</v>
-      </c>
-      <c r="D51">
-        <v>48.863636363600001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>29</v>
-      </c>
-      <c r="B52">
-        <v>40</v>
-      </c>
-      <c r="C52">
-        <v>31.2030075188</v>
-      </c>
-      <c r="D52">
-        <v>45.4545454545</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>29</v>
-      </c>
-      <c r="B53">
-        <v>60</v>
-      </c>
-      <c r="C53">
-        <v>33.458646616499998</v>
-      </c>
-      <c r="D53">
-        <v>57.9545454545</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>29</v>
-      </c>
-      <c r="B54">
-        <v>80</v>
-      </c>
-      <c r="C54">
-        <v>24.812030075199999</v>
-      </c>
-      <c r="D54">
-        <v>45.4545454545</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>29</v>
-      </c>
-      <c r="B55">
-        <v>100</v>
-      </c>
-      <c r="C55">
-        <v>25.939849624099999</v>
-      </c>
-      <c r="D55">
-        <v>53.409090909100001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
-        <v>29</v>
-      </c>
-      <c r="B56">
-        <v>120</v>
-      </c>
-      <c r="C56">
-        <v>30.0751879699</v>
-      </c>
-      <c r="D56">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>29</v>
-      </c>
-      <c r="B57">
-        <v>140</v>
-      </c>
-      <c r="C57">
-        <v>34.962406014999999</v>
-      </c>
-      <c r="D57">
-        <v>45.4545454545</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>29</v>
-      </c>
-      <c r="B58">
-        <v>160</v>
-      </c>
-      <c r="C58">
-        <v>29.699248120299998</v>
-      </c>
-      <c r="D58">
-        <v>54.5454545455</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>29</v>
-      </c>
-      <c r="B59">
-        <v>180</v>
-      </c>
-      <c r="C59">
-        <v>17.6691729323</v>
-      </c>
-      <c r="D59">
-        <v>48.863636363600001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>29</v>
-      </c>
-      <c r="B60">
-        <v>200</v>
-      </c>
-      <c r="C60">
-        <v>12.4060150376</v>
-      </c>
-      <c r="D60">
-        <v>54.5454545455</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
-        <v>29</v>
-      </c>
-      <c r="B61">
-        <v>220</v>
-      </c>
-      <c r="C61">
-        <v>19.9248120301</v>
-      </c>
-      <c r="D61">
-        <v>44.318181818200003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <v>29</v>
-      </c>
-      <c r="B62">
-        <v>240</v>
-      </c>
-      <c r="C62">
-        <v>39.8496240602</v>
-      </c>
-      <c r="D62">
-        <v>57.9545454545</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>29</v>
-      </c>
-      <c r="B63">
-        <v>260</v>
-      </c>
-      <c r="C63">
-        <v>28.571428571399998</v>
-      </c>
-      <c r="D63">
-        <v>52.272727272700003</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <v>29</v>
-      </c>
-      <c r="B64">
-        <v>280</v>
-      </c>
-      <c r="C64">
-        <v>24.812030075199999</v>
-      </c>
-      <c r="D64">
-        <v>42.0454545455</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
-        <v>29</v>
-      </c>
-      <c r="B65">
-        <v>300</v>
-      </c>
-      <c r="C65">
-        <v>33.082706766900003</v>
-      </c>
-      <c r="D65">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
-        <v>29</v>
-      </c>
-      <c r="B66">
-        <v>320</v>
-      </c>
-      <c r="C66">
-        <v>12.4060150376</v>
-      </c>
-      <c r="D66">
-        <v>52.272727272700003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
-        <v>29</v>
-      </c>
-      <c r="B67">
-        <v>340</v>
-      </c>
-      <c r="C67">
-        <v>13.157894736799999</v>
-      </c>
-      <c r="D67">
-        <v>53.409090909100001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>81</v>
-      </c>
-      <c r="B69">
-        <v>20</v>
-      </c>
-      <c r="C69">
-        <v>51.1278195489</v>
-      </c>
-      <c r="D69">
-        <v>48.863636363600001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>81</v>
-      </c>
-      <c r="B70">
-        <v>40</v>
-      </c>
-      <c r="C70">
-        <v>47.368421052599999</v>
-      </c>
-      <c r="D70">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>81</v>
-      </c>
-      <c r="B71">
-        <v>60</v>
-      </c>
-      <c r="C71">
-        <v>43.233082706799998</v>
-      </c>
-      <c r="D71">
-        <v>48.863636363600001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
-        <v>81</v>
-      </c>
-      <c r="B72">
-        <v>80</v>
-      </c>
-      <c r="C72">
-        <v>45.488721804500003</v>
-      </c>
-      <c r="D72">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>81</v>
-      </c>
-      <c r="B73">
-        <v>100</v>
-      </c>
-      <c r="C73">
-        <v>35.714285714299997</v>
-      </c>
-      <c r="D73">
-        <v>36.363636363600001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>81</v>
-      </c>
-      <c r="B74">
-        <v>120</v>
-      </c>
-      <c r="C74">
-        <v>49.624060150399998</v>
-      </c>
-      <c r="D74">
-        <v>45.4545454545</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
-        <v>81</v>
-      </c>
-      <c r="B75">
-        <v>140</v>
-      </c>
-      <c r="C75">
-        <v>37.969924812000002</v>
-      </c>
-      <c r="D75">
-        <v>38.636363636399999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <v>160</v>
-      </c>
-      <c r="C76">
-        <v>31.2030075188</v>
-      </c>
-      <c r="D76">
-        <v>44.318181818200003</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
-        <v>81</v>
-      </c>
-      <c r="B77">
-        <v>180</v>
-      </c>
-      <c r="C77">
-        <v>28.947368421099998</v>
-      </c>
-      <c r="D77">
-        <v>54.5454545455</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>81</v>
-      </c>
-      <c r="B78">
-        <v>200</v>
-      </c>
-      <c r="C78">
-        <v>36.090225563899999</v>
-      </c>
-      <c r="D78">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2449,7 +3552,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>81</v>
       </c>
@@ -2463,7 +3566,7 @@
         <v>48.863636363600001</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>81</v>
       </c>
@@ -2477,7 +3580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>81</v>
       </c>
@@ -2491,7 +3594,7 @@
         <v>36.363636363600001</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>81</v>
       </c>
@@ -2505,7 +3608,7 @@
         <v>45.4545454545</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>81</v>
       </c>
@@ -2519,7 +3622,7 @@
         <v>38.636363636399999</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>81</v>
       </c>
@@ -2533,7 +3636,7 @@
         <v>44.318181818200003</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>81</v>
       </c>
@@ -2547,7 +3650,7 @@
         <v>54.5454545455</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>81</v>
       </c>
@@ -2559,6 +3662,995 @@
       </c>
       <c r="D24">
         <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>200</v>
+      </c>
+      <c r="D27">
+        <v>52.229299363099997</v>
+      </c>
+      <c r="E27">
+        <v>43.2692307692</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>200</v>
+      </c>
+      <c r="D28">
+        <v>50.318471337600002</v>
+      </c>
+      <c r="E28">
+        <v>49.038461538500002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <v>200</v>
+      </c>
+      <c r="D29">
+        <v>49.363057324800003</v>
+      </c>
+      <c r="E29">
+        <v>51.923076923099998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>200</v>
+      </c>
+      <c r="D30">
+        <v>50.636942675199997</v>
+      </c>
+      <c r="E30">
+        <v>48.076923076900002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>200</v>
+      </c>
+      <c r="D31">
+        <v>50.636942675199997</v>
+      </c>
+      <c r="E31">
+        <v>48.076923076900002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>120</v>
+      </c>
+      <c r="C32">
+        <v>200</v>
+      </c>
+      <c r="D32">
+        <v>51.273885350299999</v>
+      </c>
+      <c r="E32">
+        <v>46.153846153800004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>140</v>
+      </c>
+      <c r="C33">
+        <v>200</v>
+      </c>
+      <c r="D33">
+        <v>51.273885350299999</v>
+      </c>
+      <c r="E33">
+        <v>46.153846153800004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>160</v>
+      </c>
+      <c r="C34">
+        <v>200</v>
+      </c>
+      <c r="D34">
+        <v>48.726114649700001</v>
+      </c>
+      <c r="E34">
+        <v>53.846153846199996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>180</v>
+      </c>
+      <c r="C35">
+        <v>200</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+      <c r="C36">
+        <v>200</v>
+      </c>
+      <c r="D36">
+        <v>48.726114649700001</v>
+      </c>
+      <c r="E36">
+        <v>53.846153846199996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="D1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>49.044585987300003</v>
+      </c>
+      <c r="F2">
+        <v>52.884615384600004</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>45.222929936299998</v>
+      </c>
+      <c r="F3">
+        <v>55.7692307692</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>46.815286624199999</v>
+      </c>
+      <c r="F4">
+        <v>51.923076923099998</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>35.031847133799999</v>
+      </c>
+      <c r="F5">
+        <v>38.461538461499998</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>45.222929936299998</v>
+      </c>
+      <c r="F6">
+        <v>42.307692307700002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>44.585987261100001</v>
+      </c>
+      <c r="F7">
+        <v>43.2692307692</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8">
+        <v>140</v>
+      </c>
+      <c r="E8">
+        <v>34.713375796199998</v>
+      </c>
+      <c r="F8">
+        <v>41.346153846199996</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9">
+        <v>160</v>
+      </c>
+      <c r="E9">
+        <v>46.496815286599997</v>
+      </c>
+      <c r="F9">
+        <v>49.038461538500002</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10">
+        <v>180</v>
+      </c>
+      <c r="E10">
+        <v>43.949044585999999</v>
+      </c>
+      <c r="F10">
+        <v>49.038461538500002</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>36.305732484099998</v>
+      </c>
+      <c r="F11">
+        <v>46.153846153800004</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12">
+        <v>220</v>
+      </c>
+      <c r="E12">
+        <v>30.573248407600001</v>
+      </c>
+      <c r="F12">
+        <v>39.423076923099998</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13">
+        <v>240</v>
+      </c>
+      <c r="E13">
+        <v>36.6242038217</v>
+      </c>
+      <c r="F13">
+        <v>48.076923076900002</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14">
+        <v>260</v>
+      </c>
+      <c r="E14">
+        <v>42.356687898099999</v>
+      </c>
+      <c r="F14">
+        <v>44.2307692308</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15">
+        <v>280</v>
+      </c>
+      <c r="E15">
+        <v>41.401273885400002</v>
+      </c>
+      <c r="F15">
+        <v>51.923076923099998</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16">
+        <v>300</v>
+      </c>
+      <c r="E16">
+        <v>28.343949044599999</v>
+      </c>
+      <c r="F16">
+        <v>41.346153846199996</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17">
+        <v>320</v>
+      </c>
+      <c r="E17">
+        <v>37.898089171999999</v>
+      </c>
+      <c r="F17">
+        <v>46.153846153800004</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18">
+        <v>340</v>
+      </c>
+      <c r="E18">
+        <v>44.267515923600001</v>
+      </c>
+      <c r="F18">
+        <v>48.076923076900002</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19">
+        <v>360</v>
+      </c>
+      <c r="E19">
+        <v>35.987261146500003</v>
+      </c>
+      <c r="F19">
+        <v>45.192307692299998</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20">
+        <v>380</v>
+      </c>
+      <c r="E20">
+        <v>33.757961783399999</v>
+      </c>
+      <c r="F20">
+        <v>34.615384615400004</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21">
+        <v>400</v>
+      </c>
+      <c r="E21">
+        <v>36.305732484099998</v>
+      </c>
+      <c r="F21">
+        <v>36.538461538500002</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22">
+        <v>420</v>
+      </c>
+      <c r="E22">
+        <v>31.5286624204</v>
+      </c>
+      <c r="F22">
+        <v>39.423076923099998</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23">
+        <v>440</v>
+      </c>
+      <c r="E23">
+        <v>32.165605095499998</v>
+      </c>
+      <c r="F23">
+        <v>39.423076923099998</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24">
+        <v>460</v>
+      </c>
+      <c r="E24">
+        <v>28.343949044599999</v>
+      </c>
+      <c r="F24">
+        <v>31.7307692308</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25">
+        <v>480</v>
+      </c>
+      <c r="E25">
+        <v>27.3885350318</v>
+      </c>
+      <c r="F25">
+        <v>41.346153846199996</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26">
+        <v>500</v>
+      </c>
+      <c r="E26">
+        <v>42.993630573200001</v>
+      </c>
+      <c r="F26">
+        <v>46.153846153800004</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27">
+        <v>520</v>
+      </c>
+      <c r="E27">
+        <v>28.343949044599999</v>
+      </c>
+      <c r="F27">
+        <v>41.346153846199996</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28">
+        <v>540</v>
+      </c>
+      <c r="E28">
+        <v>28.980891719700001</v>
+      </c>
+      <c r="F28">
+        <v>38.461538461499998</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29">
+        <v>560</v>
+      </c>
+      <c r="E29">
+        <v>34.076433121000001</v>
+      </c>
+      <c r="F29">
+        <v>40.384615384600004</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30">
+        <v>580</v>
+      </c>
+      <c r="E30">
+        <v>22.292993630600002</v>
+      </c>
+      <c r="F30">
+        <v>39.423076923099998</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31">
+        <v>600</v>
+      </c>
+      <c r="E31">
+        <v>22.292993630600002</v>
+      </c>
+      <c r="F31">
+        <v>42.307692307700002</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32">
+        <v>620</v>
+      </c>
+      <c r="E32">
+        <v>21.337579617799999</v>
+      </c>
+      <c r="F32">
+        <v>32.692307692299998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="C33">
+        <v>640</v>
+      </c>
+      <c r="E33">
+        <v>30.573248407600001</v>
+      </c>
+      <c r="F33">
+        <v>45.192307692299998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="C34">
+        <v>660</v>
+      </c>
+      <c r="E34">
+        <v>23.5668789809</v>
+      </c>
+      <c r="F34">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="C35">
+        <v>680</v>
+      </c>
+      <c r="E35">
+        <v>50.955414012699997</v>
+      </c>
+      <c r="F35">
+        <v>47.115384615400004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="C36">
+        <v>700</v>
+      </c>
+      <c r="E36">
+        <v>33.121019108299997</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="C37">
+        <v>720</v>
+      </c>
+      <c r="E37">
+        <v>37.579617834399997</v>
+      </c>
+      <c r="F37">
+        <v>38.461538461499998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="C38">
+        <v>740</v>
+      </c>
+      <c r="E38">
+        <v>25.159235668800001</v>
+      </c>
+      <c r="F38">
+        <v>41.346153846199996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39">
+        <v>760</v>
+      </c>
+      <c r="E39">
+        <v>25.477707006399999</v>
+      </c>
+      <c r="F39">
+        <v>38.461538461499998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="C40">
+        <v>780</v>
+      </c>
+      <c r="E40">
+        <v>23.5668789809</v>
+      </c>
+      <c r="F40">
+        <v>39.423076923099998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A2:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>52.229299363099997</v>
+      </c>
+      <c r="E2">
+        <v>43.2692307692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>50.318471337600002</v>
+      </c>
+      <c r="E3">
+        <v>49.038461538500002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>49.363057324800003</v>
+      </c>
+      <c r="E4">
+        <v>51.923076923099998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>50.636942675199997</v>
+      </c>
+      <c r="E5">
+        <v>48.076923076900002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>50.636942675199997</v>
+      </c>
+      <c r="E6">
+        <v>48.076923076900002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>51.273885350299999</v>
+      </c>
+      <c r="E7">
+        <v>46.153846153800004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>140</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>51.273885350299999</v>
+      </c>
+      <c r="E8">
+        <v>46.153846153800004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>160</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>48.726114649700001</v>
+      </c>
+      <c r="E9">
+        <v>53.846153846199996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>180</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>48.726114649700001</v>
+      </c>
+      <c r="E11">
+        <v>53.846153846199996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>220</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>50.636942675199997</v>
+      </c>
+      <c r="E12">
+        <v>48.076923076900002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>240</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>48.726114649700001</v>
+      </c>
+      <c r="E13">
+        <v>53.846153846199996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>260</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <v>49.681528662399998</v>
+      </c>
+      <c r="E14">
+        <v>50.961538461499998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>280</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15">
+        <v>52.229299363099997</v>
+      </c>
+      <c r="E15">
+        <v>43.2692307692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>300</v>
+      </c>
+      <c r="C16">
+        <v>200</v>
+      </c>
+      <c r="D16">
+        <v>52.866242038199999</v>
+      </c>
+      <c r="E16">
+        <v>41.346153846199996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>320</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>340</v>
+      </c>
+      <c r="C18">
+        <v>200</v>
+      </c>
+      <c r="D18">
+        <v>48.089171974499997</v>
+      </c>
+      <c r="E18">
+        <v>55.7692307692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>360</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+      <c r="D19">
+        <v>47.452229299400003</v>
+      </c>
+      <c r="E19">
+        <v>57.692307692299998</v>
       </c>
     </row>
   </sheetData>
